--- a/ProcessedData/conf_svm_video_5.xlsx
+++ b/ProcessedData/conf_svm_video_5.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.768266046149583</v>
+        <v>-1.587366000553097</v>
       </c>
       <c r="C2">
-        <v>0.3933399857745935</v>
+        <v>-0.2638047081190816</v>
       </c>
       <c r="D2">
-        <v>-0.690638773064436</v>
+        <v>-1.323912388813721</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.006353934212742</v>
+        <v>-0.803850031367434</v>
       </c>
       <c r="C3">
-        <v>0.238909707928349</v>
+        <v>-0.03105195029575936</v>
       </c>
       <c r="D3">
-        <v>-0.7751982574810603</v>
+        <v>-0.1248607304710986</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5502860199555254</v>
+        <v>-0.8466100553571889</v>
       </c>
       <c r="C4">
-        <v>0.326198654052049</v>
+        <v>-0.01867510115147725</v>
       </c>
       <c r="D4">
-        <v>-0.6440886344508605</v>
+        <v>-0.4773971150700222</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.9324335222554809</v>
+        <v>-0.74071441193615</v>
       </c>
       <c r="C5">
-        <v>0.1912146177574735</v>
+        <v>-0.06291917593051166</v>
       </c>
       <c r="D5">
-        <v>-0.7839306938709183</v>
+        <v>-0.2233155106052994</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.33835762789167</v>
+        <v>-1.2008266945135</v>
       </c>
       <c r="C6">
-        <v>0.6752366905816731</v>
+        <v>0.3335881560902365</v>
       </c>
       <c r="D6">
-        <v>-1.037971961482732</v>
+        <v>-0.2974149485998588</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -499,16 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.517472453379968</v>
+        <v>-1.367008895103287</v>
       </c>
       <c r="C7">
-        <v>0.2918015291699982</v>
+        <v>0.08684590988806695</v>
       </c>
       <c r="D7">
-        <v>-0.2656481715571023</v>
+        <v>0.1337037257777641</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.6788094456021601</v>
+        <v>-0.5779524467122358</v>
       </c>
       <c r="C8">
-        <v>0.05159978702706697</v>
+        <v>-0.1593695870126444</v>
       </c>
       <c r="D8">
-        <v>-0.8403978398613278</v>
+        <v>-0.3298443317293079</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.9884614095727822</v>
+        <v>-0.8314139054440288</v>
       </c>
       <c r="C9">
-        <v>0.3104812106286277</v>
+        <v>-0.03283939159474919</v>
       </c>
       <c r="D9">
-        <v>-0.8849727810255942</v>
+        <v>-0.1526867322441248</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.9777378216856782</v>
+        <v>-0.9401476638605415</v>
       </c>
       <c r="C10">
-        <v>0.3547668076143473</v>
+        <v>0.08540673338930316</v>
       </c>
       <c r="D10">
-        <v>-0.6749203994374966</v>
+        <v>-0.1822122072672816</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.6251103984046198</v>
+        <v>-0.7305694374840052</v>
       </c>
       <c r="C11">
-        <v>0.277769215065674</v>
+        <v>0.09377734149101985</v>
       </c>
       <c r="D11">
-        <v>-0.7096676380383099</v>
+        <v>-0.6245042817917976</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.45443662971967</v>
+        <v>-1.517083257107097</v>
       </c>
       <c r="C12">
-        <v>-0.01725056023125709</v>
+        <v>-0.5388594484729071</v>
       </c>
       <c r="D12">
-        <v>0.3095230421101583</v>
+        <v>0.5045658479637628</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -601,16 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.719883688766753</v>
+        <v>-1.312546810535205</v>
       </c>
       <c r="C13">
-        <v>0.01488418539406583</v>
+        <v>-0.4009214469132363</v>
       </c>
       <c r="D13">
-        <v>-0.1945637878315397</v>
+        <v>0.3612663384827672</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.085066495708311</v>
+        <v>-0.8069019610425867</v>
       </c>
       <c r="C14">
-        <v>0.0257501157015444</v>
+        <v>-0.2598688281722898</v>
       </c>
       <c r="D14">
-        <v>-0.571868214576972</v>
+        <v>-0.01692477294924949</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.864668399909442</v>
+        <v>-2.031308236799165</v>
       </c>
       <c r="C15">
-        <v>-0.1132092887549615</v>
+        <v>-0.9435984493663191</v>
       </c>
       <c r="D15">
-        <v>0.3568319202028862</v>
+        <v>1.864683764396156</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -652,16 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-2.053252231531289</v>
+        <v>-1.430714825504872</v>
       </c>
       <c r="C16">
-        <v>0.001605134624352078</v>
+        <v>-0.6849877446686243</v>
       </c>
       <c r="D16">
-        <v>-0.2722110188717027</v>
+        <v>0.9635314607178236</v>
+      </c>
+      <c r="E16">
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4836799264576562</v>
+        <v>-0.6429105060711665</v>
       </c>
       <c r="C17">
-        <v>0.3795800358052278</v>
+        <v>0.01125951429061545</v>
       </c>
       <c r="D17">
-        <v>-0.9314822188109856</v>
+        <v>-0.5901703333075505</v>
+      </c>
+      <c r="E17">
+        <v>37</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.373822065356588</v>
+        <v>-1.104455537548084</v>
       </c>
       <c r="C18">
-        <v>-0.01573029103984003</v>
+        <v>-0.4109331666789182</v>
       </c>
       <c r="D18">
-        <v>-0.2876562507896773</v>
+        <v>0.3845144159246416</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,16 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.303624770219888</v>
+        <v>-1.015772603366794</v>
       </c>
       <c r="C19">
-        <v>-0.008103390191618154</v>
+        <v>-0.4558989972762565</v>
       </c>
       <c r="D19">
-        <v>-0.3937561957715176</v>
+        <v>0.2760451313217359</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.6666140596722672</v>
+        <v>-0.3760631885430551</v>
       </c>
       <c r="C20">
-        <v>0.08538618014115079</v>
+        <v>-0.1947604653834491</v>
       </c>
       <c r="D20">
-        <v>-1.068883755157186</v>
+        <v>-0.4376139112610133</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.7615650777805629</v>
+        <v>-0.6219967361637631</v>
       </c>
       <c r="C21">
-        <v>-0.03481754522355696</v>
+        <v>-0.1924166671532616</v>
       </c>
       <c r="D21">
-        <v>-0.5523036732321691</v>
+        <v>-0.2861582323417773</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -754,16 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.074793625740713</v>
+        <v>-0.9633510224373782</v>
       </c>
       <c r="C22">
-        <v>0.1766111257191221</v>
+        <v>-0.2390719228888838</v>
       </c>
       <c r="D22">
-        <v>-0.5402024465170853</v>
+        <v>0.1632425952900745</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.031133197394073</v>
+        <v>-0.9535158315313719</v>
       </c>
       <c r="C23">
-        <v>-0.2073068055158579</v>
+        <v>-0.6548425071241843</v>
       </c>
       <c r="D23">
-        <v>-0.09232729056137855</v>
+        <v>0.6319738900577865</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.787813359078191</v>
+        <v>-1.409736837969565</v>
       </c>
       <c r="C24">
-        <v>0.3993423999792317</v>
+        <v>-0.3873298285900739</v>
       </c>
       <c r="D24">
-        <v>-0.6836846146848483</v>
+        <v>0.9038692136336506</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.700537853233272</v>
+        <v>-1.270053774423454</v>
       </c>
       <c r="C25">
-        <v>-0.02324850919937133</v>
+        <v>-0.5896611816442066</v>
       </c>
       <c r="D25">
-        <v>-0.2327669177270495</v>
+        <v>0.5073983614310495</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.5727462644902662</v>
+        <v>-0.3336450030327098</v>
       </c>
       <c r="C26">
-        <v>-0.6318113748870722</v>
+        <v>-0.8067963434226764</v>
       </c>
       <c r="D26">
-        <v>-0.2598924968310647</v>
+        <v>-0.2972236060082575</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -839,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.644636141080648</v>
+        <v>-1.224022649633527</v>
       </c>
       <c r="C27">
-        <v>0.1395950082388466</v>
+        <v>-0.32782451653913</v>
       </c>
       <c r="D27">
-        <v>-0.4496302456161781</v>
+        <v>0.4309395008415854</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-3.631169550179952</v>
+        <v>-3.257130642229074</v>
       </c>
       <c r="C28">
-        <v>0.8499903696259281</v>
+        <v>-0.2786106492862292</v>
       </c>
       <c r="D28">
-        <v>0.2441245982327779</v>
+        <v>-0.7788255020454303</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -873,16 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.537286168609925</v>
+        <v>-1.471167458953371</v>
       </c>
       <c r="C29">
-        <v>0.2128054134134075</v>
+        <v>-0.03207468892566773</v>
       </c>
       <c r="D29">
-        <v>0.06364278786872668</v>
+        <v>0.4107632740162839</v>
+      </c>
+      <c r="E29">
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -890,16 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.151976542080976</v>
+        <v>-1.071133854166245</v>
       </c>
       <c r="C30">
-        <v>-0.02384294170640894</v>
+        <v>-0.4591440190178622</v>
       </c>
       <c r="D30">
-        <v>-0.2188849219444975</v>
+        <v>0.08469287292155933</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.45621879343568</v>
+        <v>-1.215267606931281</v>
       </c>
       <c r="C31">
-        <v>-0.09705257168066422</v>
+        <v>-0.4189323974107255</v>
       </c>
       <c r="D31">
-        <v>-0.08694255908424497</v>
+        <v>0.4913143803912802</v>
+      </c>
+      <c r="E31">
+        <v>38</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -924,16 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-2.394178613799617</v>
+        <v>-1.80637482037019</v>
       </c>
       <c r="C32">
-        <v>0.5112555492075173</v>
+        <v>-0.2810852733685745</v>
       </c>
       <c r="D32">
-        <v>-0.560552396475187</v>
+        <v>1.20290422604714</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -941,16 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.870936447012632</v>
+        <v>-1.522827905313755</v>
       </c>
       <c r="C33">
-        <v>0.333798946636829</v>
+        <v>-0.3733761114443134</v>
       </c>
       <c r="D33">
-        <v>-0.454367314914615</v>
+        <v>0.8621738787746305</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -958,16 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.6263840803143449</v>
+        <v>-0.6967963080331574</v>
       </c>
       <c r="C34">
-        <v>-0.1823407309953004</v>
+        <v>-0.492696636029047</v>
       </c>
       <c r="D34">
-        <v>-0.2658892803299838</v>
+        <v>-0.03048012196752518</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.378175704404141</v>
+        <v>-1.412671897587753</v>
       </c>
       <c r="C35">
-        <v>-0.083061312203492</v>
+        <v>-0.1393264483672905</v>
       </c>
       <c r="D35">
-        <v>0.370229292517361</v>
+        <v>0.3547619437811783</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.275533155613383</v>
+        <v>-1.408198508848989</v>
       </c>
       <c r="C36">
-        <v>0.207335998574235</v>
+        <v>-0.2246356015720903</v>
       </c>
       <c r="D36">
-        <v>0.05207439149222974</v>
+        <v>0.4380877273264031</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.270455367569163</v>
+        <v>-1.138727658678218</v>
       </c>
       <c r="C37">
-        <v>-0.1672927981371631</v>
+        <v>-0.4309565944497921</v>
       </c>
       <c r="D37">
-        <v>0.1300492254684135</v>
+        <v>0.4393949873106376</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-1.297315704525145</v>
+        <v>-1.306736088500652</v>
       </c>
       <c r="C38">
-        <v>0.1190867859271081</v>
+        <v>-0.2562227855060946</v>
       </c>
       <c r="D38">
-        <v>-0.1197491579040502</v>
+        <v>0.2049320482508761</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.162590225023897</v>
+        <v>-1.032233167791512</v>
       </c>
       <c r="C39">
-        <v>0.1391919562587901</v>
+        <v>-0.2034120189838835</v>
       </c>
       <c r="D39">
-        <v>-0.3694659459959309</v>
+        <v>0.2158292437999329</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,16 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.720735229054223</v>
+        <v>-1.417660638478249</v>
       </c>
       <c r="C40">
-        <v>0.02760175015048716</v>
+        <v>-0.4076419401938945</v>
       </c>
       <c r="D40">
-        <v>-0.07668019597402857</v>
+        <v>0.7055719637894533</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.223577273449008</v>
+        <v>-0.8777022586604564</v>
       </c>
       <c r="C41">
-        <v>0.03193980629347615</v>
+        <v>-0.4138039531145101</v>
       </c>
       <c r="D41">
-        <v>-0.5234552452788057</v>
+        <v>0.5216218827873297</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.233742511162397</v>
+        <v>-1.054851397268905</v>
       </c>
       <c r="C42">
-        <v>0.3353767750304765</v>
+        <v>0.1240742390199164</v>
       </c>
       <c r="D42">
-        <v>-0.6414332258503097</v>
+        <v>-0.2081311147251677</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.187576464197355</v>
+        <v>-1.298839808657317</v>
       </c>
       <c r="C43">
-        <v>-0.2761172181417337</v>
+        <v>-0.7699621734514068</v>
       </c>
       <c r="D43">
-        <v>0.3417738881553778</v>
+        <v>0.3401192519925603</v>
+      </c>
+      <c r="E43">
+        <v>38</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.179127728691364</v>
+        <v>-0.966419235435641</v>
       </c>
       <c r="C44">
-        <v>0.2958258023759629</v>
+        <v>0.01329977440390789</v>
       </c>
       <c r="D44">
-        <v>-0.7045952536824448</v>
+        <v>-0.1578189990562689</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.616227310873155</v>
+        <v>-0.6423548604887763</v>
       </c>
       <c r="C45">
-        <v>0.03104974229649965</v>
+        <v>-0.1019318091927288</v>
       </c>
       <c r="D45">
-        <v>-0.4110812382791075</v>
+        <v>-0.381514589691976</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1162,16 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.40402989305146</v>
+        <v>-0.9755833170536654</v>
       </c>
       <c r="C46">
-        <v>0.1390768164387098</v>
+        <v>-0.3229780945643414</v>
       </c>
       <c r="D46">
-        <v>-0.6305534273656855</v>
+        <v>0.5199844838053006</v>
+      </c>
+      <c r="E46">
+        <v>38</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1179,16 +1305,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.992440959273817</v>
+        <v>-1.14612382993512</v>
       </c>
       <c r="C47">
-        <v>0.2815068888892936</v>
+        <v>-0.2428040245399773</v>
       </c>
       <c r="D47">
-        <v>-0.3695456269974664</v>
+        <v>0.2766433535678618</v>
+      </c>
+      <c r="E47">
+        <v>38</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1196,16 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.8718252168806142</v>
+        <v>-1.028023826999804</v>
       </c>
       <c r="C48">
-        <v>0.05205501066064838</v>
+        <v>-0.6702767820525384</v>
       </c>
       <c r="D48">
-        <v>-0.333608259265605</v>
+        <v>0.5767851821824451</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1213,16 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.375662110613077</v>
+        <v>-1.190161846368321</v>
       </c>
       <c r="C49">
-        <v>0.09617190284792726</v>
+        <v>-0.3123155637743907</v>
       </c>
       <c r="D49">
-        <v>-0.2348126112151617</v>
+        <v>0.3892353873647794</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-4.31340067425397</v>
+        <v>-3.785248844492246</v>
       </c>
       <c r="C50">
-        <v>0.8455188042176345</v>
+        <v>-0.3370655187468259</v>
       </c>
       <c r="D50">
-        <v>0.7567545280991632</v>
+        <v>-0.4041571282670715</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1247,16 +1385,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.579870759480279</v>
+        <v>-1.215695550676487</v>
       </c>
       <c r="C51">
-        <v>0.006755083217036495</v>
+        <v>-0.3888469906998993</v>
       </c>
       <c r="D51">
-        <v>-0.1824474162255036</v>
+        <v>0.4057885256869763</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1264,16 +1405,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.238155575409802</v>
+        <v>-0.9229721466238676</v>
       </c>
       <c r="C52">
-        <v>0.2359992067257963</v>
+        <v>-0.2357970759297811</v>
       </c>
       <c r="D52">
-        <v>-0.7242955635674685</v>
+        <v>0.2356200845982479</v>
+      </c>
+      <c r="E52">
+        <v>38</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.99123436618462</v>
+        <v>-1.628767789612052</v>
       </c>
       <c r="C53">
-        <v>-0.05348012351260961</v>
+        <v>-0.5605865500426408</v>
       </c>
       <c r="D53">
-        <v>0.251940498305708</v>
+        <v>0.644341250705399</v>
+      </c>
+      <c r="E53">
+        <v>38</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -1298,16 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.136362679254097</v>
+        <v>-1.034726952090672</v>
       </c>
       <c r="C54">
-        <v>0.0556296511684003</v>
+        <v>-0.1329251839310557</v>
       </c>
       <c r="D54">
-        <v>-0.2006708418059059</v>
+        <v>0.2316522670268946</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4306981075536716</v>
+        <v>-0.4111189554039387</v>
       </c>
       <c r="C55">
-        <v>-0.3376864584174136</v>
+        <v>-0.3840645849809334</v>
       </c>
       <c r="D55">
-        <v>-0.3335116437060243</v>
+        <v>-0.2742267605966363</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.5989902398626534</v>
+        <v>-0.5544101378431828</v>
       </c>
       <c r="C56">
-        <v>-0.4273663020881218</v>
+        <v>-0.5361506841944427</v>
       </c>
       <c r="D56">
-        <v>-0.2416341810828227</v>
+        <v>-0.03572380861694716</v>
+      </c>
+      <c r="E56">
+        <v>39</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4708565121574705</v>
+        <v>-0.4275204810213051</v>
       </c>
       <c r="C57">
-        <v>-0.5518648144309956</v>
+        <v>-0.667328573419111</v>
       </c>
       <c r="D57">
-        <v>-0.1852945089363757</v>
+        <v>0.008696309600670589</v>
+      </c>
+      <c r="E57">
+        <v>39</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.8828327557996931</v>
+        <v>-0.8381448895409531</v>
       </c>
       <c r="C58">
-        <v>-0.044324338213244</v>
+        <v>-0.1364166183638409</v>
       </c>
       <c r="D58">
-        <v>-0.2975090057069866</v>
+        <v>-0.06911776015431087</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.366678239671737</v>
+        <v>-0.3317906567626023</v>
       </c>
       <c r="C59">
-        <v>-0.8868422044624421</v>
+        <v>-0.9366217012334783</v>
       </c>
       <c r="D59">
-        <v>0.005497442710646658</v>
+        <v>0.13879908269096</v>
+      </c>
+      <c r="E59">
+        <v>39</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4877434881698084</v>
+        <v>-0.464869554171407</v>
       </c>
       <c r="C60">
-        <v>0.2064318538752863</v>
+        <v>0.1402816905958413</v>
       </c>
       <c r="D60">
-        <v>-0.8562354318452418</v>
+        <v>-0.7153874016751015</v>
+      </c>
+      <c r="E60">
+        <v>39</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.6057949922489499</v>
+        <v>-0.5539979752535624</v>
       </c>
       <c r="C61">
-        <v>-0.4749357791491307</v>
+        <v>-0.564900612038017</v>
       </c>
       <c r="D61">
-        <v>-0.1876444393508476</v>
+        <v>0.04539072669887311</v>
+      </c>
+      <c r="E61">
+        <v>39</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.4184524031705734</v>
+        <v>-0.3547828218835886</v>
       </c>
       <c r="C62">
-        <v>-0.5803461438113842</v>
+        <v>-0.6652939777810374</v>
       </c>
       <c r="D62">
-        <v>-0.3201363918449535</v>
+        <v>-0.1004378179910096</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.4800393502516635</v>
+        <v>-0.4496066155568179</v>
       </c>
       <c r="C63">
-        <v>-0.618027029475321</v>
+        <v>-0.6938186060675939</v>
       </c>
       <c r="D63">
-        <v>-0.06121922718987362</v>
+        <v>0.07223786549820202</v>
+      </c>
+      <c r="E63">
+        <v>39</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,16 +1645,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.3486726879493663</v>
+        <v>-0.2995296533173998</v>
       </c>
       <c r="C64">
-        <v>-0.3547723692184778</v>
+        <v>-0.4423668437030646</v>
       </c>
       <c r="D64">
-        <v>-0.5045484777421484</v>
+        <v>-0.2728381165384804</v>
+      </c>
+      <c r="E64">
+        <v>39</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2606542011272663</v>
+        <v>0.2900753924652746</v>
       </c>
       <c r="C65">
-        <v>-1.100948975251033</v>
+        <v>-1.216652878036537</v>
       </c>
       <c r="D65">
-        <v>-0.3235839498745459</v>
+        <v>-0.1231692030003543</v>
+      </c>
+      <c r="E65">
+        <v>39</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1502,16 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.7360901951764345</v>
+        <v>-0.5937899858498016</v>
       </c>
       <c r="C66">
-        <v>-0.2630854937908991</v>
+        <v>-0.519356459714427</v>
       </c>
       <c r="D66">
-        <v>-0.530255271256866</v>
+        <v>0.2162284354384939</v>
+      </c>
+      <c r="E66">
+        <v>39</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.1048107620713938</v>
+        <v>-0.05908281025990159</v>
       </c>
       <c r="C67">
-        <v>-0.3658060306466052</v>
+        <v>-0.4599743876557961</v>
       </c>
       <c r="D67">
-        <v>-0.7077735942196062</v>
+        <v>-0.5461173919639697</v>
+      </c>
+      <c r="E67">
+        <v>39</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.5528922939108766</v>
+        <v>-0.5367462492251525</v>
       </c>
       <c r="C68">
-        <v>-0.3663242582995409</v>
+        <v>-0.4611449027580756</v>
       </c>
       <c r="D68">
-        <v>-0.2313537944970601</v>
+        <v>-0.261597255692432</v>
+      </c>
+      <c r="E68">
+        <v>39</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4261657778224364</v>
+        <v>-0.3773964664094961</v>
       </c>
       <c r="C69">
-        <v>-0.4572594217567824</v>
+        <v>-0.5504361304342661</v>
       </c>
       <c r="D69">
-        <v>-0.3003364799896879</v>
+        <v>-0.06407383840402672</v>
+      </c>
+      <c r="E69">
+        <v>39</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5700522749034506</v>
+        <v>-0.495691981479477</v>
       </c>
       <c r="C70">
-        <v>-0.4157079473434611</v>
+        <v>-0.5796844278307129</v>
       </c>
       <c r="D70">
-        <v>-0.3752294584154954</v>
+        <v>0.07159083469126404</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -1587,16 +1785,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.6525240474054154</v>
+        <v>-0.6378018139332893</v>
       </c>
       <c r="C71">
-        <v>-0.2088478656139487</v>
+        <v>-0.3235312874951439</v>
       </c>
       <c r="D71">
-        <v>-0.3483836676707183</v>
+        <v>-0.1161526496846167</v>
+      </c>
+      <c r="E71">
+        <v>39</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.2676323053056326</v>
+        <v>-0.1572466815695729</v>
       </c>
       <c r="C72">
-        <v>-0.442886610393403</v>
+        <v>-0.6077100956827188</v>
       </c>
       <c r="D72">
-        <v>-0.670436317840158</v>
+        <v>-0.187292436023256</v>
+      </c>
+      <c r="E72">
+        <v>39</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.05753024996478268</v>
+        <v>0.09526633652935745</v>
       </c>
       <c r="C73">
-        <v>-0.3642841845448285</v>
+        <v>-0.4287021509501131</v>
       </c>
       <c r="D73">
-        <v>-0.7886966420292212</v>
+        <v>-0.6249707398223765</v>
+      </c>
+      <c r="E73">
+        <v>39</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1845802033277245</v>
+        <v>-0.1955506620400491</v>
       </c>
       <c r="C74">
-        <v>-0.2752914133181996</v>
+        <v>-0.4129977212976063</v>
       </c>
       <c r="D74">
-        <v>-0.6884692923288497</v>
+        <v>-0.4472308979723904</v>
+      </c>
+      <c r="E74">
+        <v>39</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.2967580893206866</v>
+        <v>-0.2758425825274815</v>
       </c>
       <c r="C75">
-        <v>-0.481509306746612</v>
+        <v>-0.5260161048584288</v>
       </c>
       <c r="D75">
-        <v>-0.2221222920690012</v>
+        <v>-0.1305708580870652</v>
+      </c>
+      <c r="E75">
+        <v>39</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.07788774662523612</v>
+        <v>-0.08302333258391631</v>
       </c>
       <c r="C76">
-        <v>-0.7214094929097421</v>
+        <v>-0.787815184888045</v>
       </c>
       <c r="D76">
-        <v>-0.2946810126290073</v>
+        <v>-0.1851123283273679</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.09278008672579302</v>
+        <v>-0.08272691109802538</v>
       </c>
       <c r="C77">
-        <v>-0.1176225024951375</v>
+        <v>-0.2784817568071964</v>
       </c>
       <c r="D77">
-        <v>-0.9364765914305522</v>
+        <v>-0.6158833431097713</v>
+      </c>
+      <c r="E77">
+        <v>39</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.1570967916057933</v>
+        <v>-0.116995102837628</v>
       </c>
       <c r="C78">
-        <v>-0.4520805401622273</v>
+        <v>-0.5277392425859825</v>
       </c>
       <c r="D78">
-        <v>-0.4619041985001772</v>
+        <v>-0.3284351185768625</v>
+      </c>
+      <c r="E78">
+        <v>39</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1723,16 +1945,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.8268344712784561</v>
+        <v>-0.7522894996152902</v>
       </c>
       <c r="C79">
-        <v>-0.05765648866000833</v>
+        <v>-0.4443604559500689</v>
       </c>
       <c r="D79">
-        <v>-0.4490197773711562</v>
+        <v>0.3480497677793364</v>
+      </c>
+      <c r="E79">
+        <v>39</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-2.236401139284113</v>
+        <v>-2.353177550925011</v>
       </c>
       <c r="C80">
-        <v>1.040010178865481</v>
+        <v>0.09391328862128023</v>
       </c>
       <c r="D80">
-        <v>-0.4097152654041025</v>
+        <v>-0.8735124658675222</v>
+      </c>
+      <c r="E80">
+        <v>39</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.3716784481777386</v>
+        <v>0.479558509522619</v>
       </c>
       <c r="C81">
-        <v>-0.4302848776816556</v>
+        <v>-0.6294039044696353</v>
       </c>
       <c r="D81">
-        <v>-1.292870329837865</v>
+        <v>-0.84523672713845</v>
+      </c>
+      <c r="E81">
+        <v>39</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -1774,16 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.6952028695069774</v>
+        <v>-0.6748259934494183</v>
       </c>
       <c r="C82">
-        <v>-0.1698704053731875</v>
+        <v>-0.290437354525601</v>
       </c>
       <c r="D82">
-        <v>-0.2818273820898957</v>
+        <v>-0.02195230734541083</v>
+      </c>
+      <c r="E82">
+        <v>39</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.6578740763712886</v>
+        <v>-0.623397241853288</v>
       </c>
       <c r="C83">
-        <v>-0.2427265473198429</v>
+        <v>-0.3021169489763869</v>
       </c>
       <c r="D83">
-        <v>-0.2245952019688036</v>
+        <v>-0.08219019882225442</v>
+      </c>
+      <c r="E83">
+        <v>39</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -1808,16 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.4064633574172761</v>
+        <v>-0.3539146009772366</v>
       </c>
       <c r="C84">
-        <v>-0.3425840855431341</v>
+        <v>-0.4466745054523866</v>
       </c>
       <c r="D84">
-        <v>-0.4016886606634038</v>
+        <v>-0.1554291409042726</v>
+      </c>
+      <c r="E84">
+        <v>39</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4913279417316954</v>
+        <v>-0.4705806629454382</v>
       </c>
       <c r="C85">
-        <v>-0.4339684105962746</v>
+        <v>-0.5045439336328671</v>
       </c>
       <c r="D85">
-        <v>-0.1229669327950876</v>
+        <v>0.02650787800118144</v>
+      </c>
+      <c r="E85">
+        <v>39</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.3336718028655044</v>
+        <v>-0.3208197040345841</v>
       </c>
       <c r="C86">
-        <v>-0.6131810973656213</v>
+        <v>-0.6678090544808584</v>
       </c>
       <c r="D86">
-        <v>-0.04873492933298779</v>
+        <v>0.07588706899545827</v>
+      </c>
+      <c r="E86">
+        <v>39</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.4238594034060073</v>
+        <v>-0.4069528347721567</v>
       </c>
       <c r="C87">
-        <v>-0.3521700627451653</v>
+        <v>-0.46421883022327</v>
       </c>
       <c r="D87">
-        <v>-0.2992143769873344</v>
+        <v>-0.08319559820919736</v>
+      </c>
+      <c r="E87">
+        <v>39</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.06834080313915342</v>
+        <v>0.09048912317723501</v>
       </c>
       <c r="C88">
-        <v>-1.563072749783744</v>
+        <v>-1.585764625509718</v>
       </c>
       <c r="D88">
-        <v>0.4011861689012623</v>
+        <v>0.4503348133947431</v>
+      </c>
+      <c r="E88">
+        <v>39</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.8177127381439551</v>
+        <v>-0.776682305916119</v>
       </c>
       <c r="C89">
-        <v>-0.3513638345326915</v>
+        <v>-0.4057128106695652</v>
       </c>
       <c r="D89">
-        <v>-0.01772607185070318</v>
+        <v>0.1024136415208395</v>
+      </c>
+      <c r="E89">
+        <v>39</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.6830760372629266</v>
+        <v>-0.6750550344251333</v>
       </c>
       <c r="C90">
-        <v>-0.3105289370905344</v>
+        <v>-0.3591648583496962</v>
       </c>
       <c r="D90">
-        <v>-0.08832693910907979</v>
+        <v>-0.0002082795691423014</v>
+      </c>
+      <c r="E90">
+        <v>39</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.020407567463281</v>
+        <v>-1.024020075337442</v>
       </c>
       <c r="C91">
-        <v>-0.1511308971952347</v>
+        <v>-0.1888205769893863</v>
       </c>
       <c r="D91">
-        <v>0.1242161364362766</v>
+        <v>0.1640479361939585</v>
+      </c>
+      <c r="E91">
+        <v>39</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1944,16 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.181660120911889</v>
+        <v>-1.262792897314478</v>
       </c>
       <c r="C92">
-        <v>0.07792568154336704</v>
+        <v>-0.1699609130617244</v>
       </c>
       <c r="D92">
-        <v>0.03920997900122765</v>
+        <v>0.3322028457345099</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-1.053646303588088</v>
+        <v>-1.100736603556471</v>
       </c>
       <c r="C93">
-        <v>-0.06335651699963929</v>
+        <v>-0.1934757312347769</v>
       </c>
       <c r="D93">
-        <v>-0.02267635960777935</v>
+        <v>0.2166881482868538</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.4695089699233978</v>
+        <v>-0.4691813424224067</v>
       </c>
       <c r="C94">
-        <v>-0.3577376574993032</v>
+        <v>-0.3568534601876171</v>
       </c>
       <c r="D94">
-        <v>-0.04279132328563412</v>
+        <v>-0.04203581690125474</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.304116242060613</v>
+        <v>-1.683414723215001</v>
       </c>
       <c r="C95">
-        <v>1.143089012528339</v>
+        <v>0.2611256408884863</v>
       </c>
       <c r="D95">
-        <v>-1.280696647117708</v>
+        <v>-1.382200568965552</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-1.805895073346639</v>
+        <v>-1.458228057519841</v>
       </c>
       <c r="C96">
-        <v>0.4733338331265881</v>
+        <v>0.01619832357715678</v>
       </c>
       <c r="D96">
-        <v>-0.5946177813332981</v>
+        <v>0.5332214880661316</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-2.363153218834044</v>
+        <v>-2.245509183853558</v>
       </c>
       <c r="C97">
-        <v>1.008141868867865</v>
+        <v>-0.04803846424384534</v>
       </c>
       <c r="D97">
-        <v>-0.8621154413628391</v>
+        <v>-0.4263918023543439</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2046,16 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-3.057712290843834</v>
+        <v>-2.189187881549252</v>
       </c>
       <c r="C98">
-        <v>0.412779083508628</v>
+        <v>-0.339224603232387</v>
       </c>
       <c r="D98">
-        <v>-0.2448261310373907</v>
+        <v>0.9262798140555464</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-1.22456187385943</v>
+        <v>-0.9969068186634474</v>
       </c>
       <c r="C99">
-        <v>0.5955939206769703</v>
+        <v>0.15513616939263</v>
       </c>
       <c r="D99">
-        <v>-1.275711795548851</v>
+        <v>-0.1229466590484544</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2080,16 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.583845955707214</v>
+        <v>-1.294241871223509</v>
       </c>
       <c r="C100">
-        <v>0.2007338571064718</v>
+        <v>-0.3100783027115173</v>
       </c>
       <c r="D100">
-        <v>-0.4542860554673841</v>
+        <v>0.6994634295787366</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.885386026551226</v>
+        <v>-1.838187909478634</v>
       </c>
       <c r="C101">
-        <v>0.9983913130656752</v>
+        <v>0.02686724775265042</v>
       </c>
       <c r="D101">
-        <v>-1.248962548256646</v>
+        <v>-0.6779149166472188</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.4964792205690624</v>
+        <v>-0.4898282127495157</v>
       </c>
       <c r="C102">
-        <v>-0.3475052455885178</v>
+        <v>-0.3495137211891183</v>
       </c>
       <c r="D102">
-        <v>-0.03597098686499057</v>
+        <v>-0.03640937868306594</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.8640617074323496</v>
+        <v>-1.056911502502214</v>
       </c>
       <c r="C103">
-        <v>1.133356074041165</v>
+        <v>-0.000204847047204082</v>
       </c>
       <c r="D103">
-        <v>-2.421296496871488</v>
+        <v>-1.968950444983163</v>
+      </c>
+      <c r="E103">
+        <v>40</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.892686457269829</v>
+        <v>-1.164483243175892</v>
       </c>
       <c r="C104">
-        <v>1.021535356204404</v>
+        <v>0.0589587404474482</v>
       </c>
       <c r="D104">
-        <v>-1.993770384412399</v>
+        <v>-2.018461272551542</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-6.083988428462235</v>
+        <v>-4.486380917691721</v>
       </c>
       <c r="C105">
-        <v>-0.7888213500468626</v>
+        <v>-1.705521656317794</v>
       </c>
       <c r="D105">
-        <v>3.190844973872669</v>
+        <v>2.207926660015168</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-5.094450062468277</v>
+        <v>-3.913635618741313</v>
       </c>
       <c r="C106">
-        <v>-0.5470094617104868</v>
+        <v>-1.442888517338798</v>
       </c>
       <c r="D106">
-        <v>2.374609928921253</v>
+        <v>1.393799043329717</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-6.97692494186956</v>
+        <v>-5.105519530336544</v>
       </c>
       <c r="C107">
-        <v>-0.4552338768250834</v>
+        <v>-2.007826254881966</v>
       </c>
       <c r="D107">
-        <v>2.402799098111189</v>
+        <v>1.300660029188411</v>
+      </c>
+      <c r="E107">
+        <v>40</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,16 +2525,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-1.293418396110163</v>
+        <v>-1.037020733842454</v>
       </c>
       <c r="C108">
-        <v>0.005563108093845137</v>
+        <v>-0.4306220475330546</v>
       </c>
       <c r="D108">
-        <v>-0.4650575996764895</v>
+        <v>0.4264973213679539</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2233,16 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.7263784122092076</v>
+        <v>-0.6256904066963509</v>
       </c>
       <c r="C109">
-        <v>0.1341559388355526</v>
+        <v>-0.3124031010489118</v>
       </c>
       <c r="D109">
-        <v>-0.9427882031887157</v>
+        <v>0.0846809794310614</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-4.992287724803302</v>
+        <v>-3.750259283768433</v>
       </c>
       <c r="C110">
-        <v>-0.574283692618144</v>
+        <v>-1.612303238834482</v>
       </c>
       <c r="D110">
-        <v>2.080693802748063</v>
+        <v>1.193799714742573</v>
+      </c>
+      <c r="E110">
+        <v>40</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-5.52446816870133</v>
+        <v>-4.182167008150642</v>
       </c>
       <c r="C111">
-        <v>-0.5248207865749772</v>
+        <v>-1.434778178989319</v>
       </c>
       <c r="D111">
-        <v>2.631623896621583</v>
+        <v>1.569301463404486</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-6.776189701237673</v>
+        <v>-5.177088377894109</v>
       </c>
       <c r="C112">
-        <v>-0.7537237216516821</v>
+        <v>-1.642546475835724</v>
       </c>
       <c r="D112">
-        <v>3.880912587416215</v>
+        <v>1.91909994852204</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.072144868789177</v>
+        <v>-1.08529659040095</v>
       </c>
       <c r="C113">
-        <v>-0.2694870232483471</v>
+        <v>-0.2882767705355426</v>
       </c>
       <c r="D113">
-        <v>0.3633440015202002</v>
+        <v>0.3842041790787422</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-5.556242797371612</v>
+        <v>-4.002661285874052</v>
       </c>
       <c r="C114">
-        <v>-0.3478169103682433</v>
+        <v>-1.596324124494227</v>
       </c>
       <c r="D114">
-        <v>1.656459299264048</v>
+        <v>0.9862972414539217</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.8068352769052525</v>
+        <v>-0.7294961378403357</v>
       </c>
       <c r="C115">
-        <v>-0.3756322121744086</v>
+        <v>-0.4289590554252307</v>
       </c>
       <c r="D115">
-        <v>0.1046758516670707</v>
+        <v>0.1334534377701864</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.6795561376457446</v>
+        <v>-0.6600216274955795</v>
       </c>
       <c r="C116">
-        <v>-0.08889374516096243</v>
+        <v>-0.1152180988717546</v>
       </c>
       <c r="D116">
-        <v>-0.2110597368962184</v>
+        <v>-0.1942054852976652</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2369,16 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.163403754091139</v>
+        <v>-1.083676319733183</v>
       </c>
       <c r="C117">
-        <v>0.2227627034230886</v>
+        <v>-0.1344704203846535</v>
       </c>
       <c r="D117">
-        <v>-0.5338691929725781</v>
+        <v>0.2244064693802212</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-3.800232520032647</v>
+        <v>-2.828662258349275</v>
       </c>
       <c r="C118">
-        <v>-0.1009635452846122</v>
+        <v>-1.057762066013175</v>
       </c>
       <c r="D118">
-        <v>0.7564441050374169</v>
+        <v>0.600912112450715</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-5.988700831485192</v>
+        <v>-4.380423313581917</v>
       </c>
       <c r="C119">
-        <v>-0.2227344986883806</v>
+        <v>-1.565953204053319</v>
       </c>
       <c r="D119">
-        <v>1.977618439413426</v>
+        <v>1.78212103523007</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-6.34041144107507</v>
+        <v>-4.690541334620947</v>
       </c>
       <c r="C120">
-        <v>-0.1761556030054742</v>
+        <v>-1.12344260126886</v>
       </c>
       <c r="D120">
-        <v>2.599975952776115</v>
+        <v>1.869972063826623</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-7.421584963913924</v>
+        <v>-5.839700044140291</v>
       </c>
       <c r="C121">
-        <v>0.5995042676849026</v>
+        <v>-1.050753188032144</v>
       </c>
       <c r="D121">
-        <v>2.246881282091405</v>
+        <v>0.5411435581448024</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.2476668202202551</v>
+        <v>-0.6792935237829101</v>
       </c>
       <c r="C122">
-        <v>1.309398740468919</v>
+        <v>0.2847506424908429</v>
       </c>
       <c r="D122">
-        <v>-2.782163448319403</v>
+        <v>-2.463108538196924</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2471,16 +2825,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.9596022677698083</v>
+        <v>-0.7390730219771877</v>
       </c>
       <c r="C123">
-        <v>0.05936018745799776</v>
+        <v>-0.3139474698446794</v>
       </c>
       <c r="D123">
-        <v>-0.8279321787393954</v>
+        <v>0.2220091082957179</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2488,16 +2845,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-1.12397124522644</v>
+        <v>-0.7093043747613141</v>
       </c>
       <c r="C124">
-        <v>-0.01162063626698551</v>
+        <v>-0.6196014351934285</v>
       </c>
       <c r="D124">
-        <v>-1.052050864179137</v>
+        <v>0.5743885222242741</v>
+      </c>
+      <c r="E124">
+        <v>41</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-2.46883219129915</v>
+        <v>-2.335874437239625</v>
       </c>
       <c r="C125">
-        <v>0.9610443441651786</v>
+        <v>0.1480303820754538</v>
       </c>
       <c r="D125">
-        <v>-0.4241033349497427</v>
+        <v>-0.2885901686051455</v>
+      </c>
+      <c r="E125">
+        <v>41</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-1.267026749664438</v>
+        <v>-1.157522434179192</v>
       </c>
       <c r="C126">
-        <v>0.2219388950650075</v>
+        <v>0.02350817307484049</v>
       </c>
       <c r="D126">
-        <v>-0.2084107461210464</v>
+        <v>0.286078083666701</v>
+      </c>
+      <c r="E126">
+        <v>41</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-1.07862367236325</v>
+        <v>-0.9247410581009592</v>
       </c>
       <c r="C127">
-        <v>-0.1964253376795755</v>
+        <v>-0.3804002280507514</v>
       </c>
       <c r="D127">
-        <v>0.005833838710613971</v>
+        <v>0.343973115601852</v>
+      </c>
+      <c r="E127">
+        <v>41</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-1.500398023294275</v>
+        <v>-1.184586657744746</v>
       </c>
       <c r="C128">
-        <v>0.09188446814913215</v>
+        <v>-0.3435789869563573</v>
       </c>
       <c r="D128">
-        <v>-0.3864254137586385</v>
+        <v>0.8059572696157651</v>
+      </c>
+      <c r="E128">
+        <v>41</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-1.180981462864646</v>
+        <v>-1.15482570278676</v>
       </c>
       <c r="C129">
-        <v>0.07335525343550864</v>
+        <v>-0.1190135926066146</v>
       </c>
       <c r="D129">
-        <v>-0.04290298330556165</v>
+        <v>0.3240469431220833</v>
+      </c>
+      <c r="E129">
+        <v>41</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-1.582109497137276</v>
+        <v>-1.550367403574928</v>
       </c>
       <c r="C130">
-        <v>0.4152706633576462</v>
+        <v>0.3695884168064956</v>
       </c>
       <c r="D130">
-        <v>0.03040216060932424</v>
+        <v>0.1233719598202322</v>
+      </c>
+      <c r="E130">
+        <v>41</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.5046471879828163</v>
+        <v>-0.5488011552950185</v>
       </c>
       <c r="C131">
-        <v>-0.2721339845356714</v>
+        <v>-0.3285385241027806</v>
       </c>
       <c r="D131">
-        <v>-0.05753997683426703</v>
+        <v>-0.03983187985749755</v>
+      </c>
+      <c r="E131">
+        <v>41</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-1.252992519995324</v>
+        <v>-1.112098555357065</v>
       </c>
       <c r="C132">
-        <v>0.4693496656747527</v>
+        <v>0.07840613943940633</v>
       </c>
       <c r="D132">
-        <v>-0.7551280987236809</v>
+        <v>0.1863856216117026</v>
+      </c>
+      <c r="E132">
+        <v>41</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-1.300031240815235</v>
+        <v>-1.225824724303707</v>
       </c>
       <c r="C133">
-        <v>0.3115940957314919</v>
+        <v>0.1394705784420249</v>
       </c>
       <c r="D133">
-        <v>-0.2153556193668014</v>
+        <v>0.1621997627492098</v>
+      </c>
+      <c r="E133">
+        <v>41</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.301836259846501</v>
+        <v>-1.26501292762423</v>
       </c>
       <c r="C134">
-        <v>0.3995392531776346</v>
+        <v>0.3247792796950772</v>
       </c>
       <c r="D134">
-        <v>-0.2297849185440524</v>
+        <v>-0.08719346076829207</v>
+      </c>
+      <c r="E134">
+        <v>41</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-2.155474073960756</v>
+        <v>-2.11235441319079</v>
       </c>
       <c r="C135">
-        <v>0.7378603466132838</v>
+        <v>0.03586597924827495</v>
       </c>
       <c r="D135">
-        <v>-0.2764380953479387</v>
+        <v>-0.5073695145399199</v>
+      </c>
+      <c r="E135">
+        <v>41</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-2.65878666368895</v>
+        <v>-2.734420580201597</v>
       </c>
       <c r="C136">
-        <v>1.128693896902899</v>
+        <v>0.2312549061837132</v>
       </c>
       <c r="D136">
-        <v>-0.2303274513271996</v>
+        <v>-1.091922240587235</v>
+      </c>
+      <c r="E136">
+        <v>41</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.741897495549896</v>
+        <v>-1.042756461535697</v>
       </c>
       <c r="C137">
-        <v>0.9325044214092946</v>
+        <v>0.07533082671123464</v>
       </c>
       <c r="D137">
-        <v>-1.794324095461628</v>
+        <v>-2.611694308298586</v>
+      </c>
+      <c r="E137">
+        <v>41</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -2726,16 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.5421947384530026</v>
+        <v>-0.7460298795908291</v>
       </c>
       <c r="C138">
-        <v>-0.01926209186535216</v>
+        <v>-0.2790170269426376</v>
       </c>
       <c r="D138">
-        <v>-0.2798862422593083</v>
+        <v>-0.009401666581655914</v>
+      </c>
+      <c r="E138">
+        <v>41</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.135741638038888</v>
+        <v>-1.612800586637463</v>
       </c>
       <c r="C139">
-        <v>1.502561096229721</v>
+        <v>0.4537581283651476</v>
       </c>
       <c r="D139">
-        <v>-1.868994047920862</v>
+        <v>-2.606170487270377</v>
+      </c>
+      <c r="E139">
+        <v>41</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -2760,16 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-1.515945673445938</v>
+        <v>-1.164979248728194</v>
       </c>
       <c r="C140">
-        <v>0.3237623999209774</v>
+        <v>-0.2128874173720694</v>
       </c>
       <c r="D140">
-        <v>-0.7747274603264197</v>
+        <v>0.6985210616338128</v>
+      </c>
+      <c r="E140">
+        <v>41</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2777,16 +3185,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.6818475150652263</v>
+        <v>-0.6980461031166388</v>
       </c>
       <c r="C141">
-        <v>-0.0741933321861476</v>
+        <v>-0.1405291497086409</v>
       </c>
       <c r="D141">
-        <v>-0.1599381603384565</v>
+        <v>-0.0984111266992321</v>
+      </c>
+      <c r="E141">
+        <v>41</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2794,16 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-1.111040629033701</v>
+        <v>-0.9938080647832317</v>
       </c>
       <c r="C142">
-        <v>0.1487105048712022</v>
+        <v>-0.1793345868027465</v>
       </c>
       <c r="D142">
-        <v>-0.3850385878984173</v>
+        <v>0.298672319595272</v>
+      </c>
+      <c r="E142">
+        <v>41</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2811,16 +3225,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-1.619118348379017</v>
+        <v>-1.083216590518906</v>
       </c>
       <c r="C143">
-        <v>0.6413731004099479</v>
+        <v>-0.1341765746577064</v>
       </c>
       <c r="D143">
-        <v>-1.395916632661699</v>
+        <v>0.9178032859217276</v>
+      </c>
+      <c r="E143">
+        <v>41</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2828,16 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-1.358022765982817</v>
+        <v>-1.162074644085025</v>
       </c>
       <c r="C144">
-        <v>0.4432938078503148</v>
+        <v>0.07527207042340156</v>
       </c>
       <c r="D144">
-        <v>-0.6254034732331022</v>
+        <v>0.3698907100426806</v>
+      </c>
+      <c r="E144">
+        <v>41</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2845,16 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-1.314678104541845</v>
+        <v>-1.108765527241623</v>
       </c>
       <c r="C145">
-        <v>0.2964373230435177</v>
+        <v>-0.1315865599683791</v>
       </c>
       <c r="D145">
-        <v>-0.5981650062761559</v>
+        <v>0.4370475077619899</v>
+      </c>
+      <c r="E145">
+        <v>41</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-2.511402159127871</v>
+        <v>-2.29522776469316</v>
       </c>
       <c r="C146">
-        <v>1.027521878808832</v>
+        <v>0.04987687450669692</v>
       </c>
       <c r="D146">
-        <v>-0.6834675245402181</v>
+        <v>-0.2275244520091891</v>
+      </c>
+      <c r="E146">
+        <v>41</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-1.285385615609382</v>
+        <v>-1.159871009592973</v>
       </c>
       <c r="C147">
-        <v>0.2640111077501591</v>
+        <v>0.1024932485775351</v>
       </c>
       <c r="D147">
-        <v>-0.3492136683031233</v>
+        <v>0.09138071763358963</v>
+      </c>
+      <c r="E147">
+        <v>41</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-1.497915818228531</v>
+        <v>-1.839702556273372</v>
       </c>
       <c r="C148">
-        <v>1.380651563992227</v>
+        <v>0.4089078949883665</v>
       </c>
       <c r="D148">
-        <v>-1.498325511661308</v>
+        <v>-2.136638782524343</v>
+      </c>
+      <c r="E148">
+        <v>41</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -2913,16 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-1.198405419035522</v>
+        <v>-1.137388939077929</v>
       </c>
       <c r="C149">
-        <v>0.323920464798656</v>
+        <v>-0.1167291186325379</v>
       </c>
       <c r="D149">
-        <v>-0.5197473471902014</v>
+        <v>0.363328147051188</v>
+      </c>
+      <c r="E149">
+        <v>41</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2930,16 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-1.722054652306954</v>
+        <v>-1.106850791483509</v>
       </c>
       <c r="C150">
-        <v>0.4643429456941953</v>
+        <v>-0.3397362701090903</v>
       </c>
       <c r="D150">
-        <v>-1.292233243885205</v>
+        <v>0.9939121332703909</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-2.092471238916161</v>
+        <v>-2.093124809707852</v>
       </c>
       <c r="C151">
-        <v>0.6713400620780279</v>
+        <v>-0.03553253988914473</v>
       </c>
       <c r="D151">
-        <v>-0.1613772175625381</v>
+        <v>-0.687293757552442</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-1.926498478841313</v>
+        <v>-1.736960844918155</v>
       </c>
       <c r="C152">
-        <v>0.5774905533870749</v>
+        <v>0.002445456855749595</v>
       </c>
       <c r="D152">
-        <v>-0.4016296775430823</v>
+        <v>-0.1126483341971746</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -2981,16 +3425,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.4402747209810082</v>
+        <v>-0.4171376261169117</v>
       </c>
       <c r="C153">
-        <v>-0.2289355235081841</v>
+        <v>-0.3928564892690824</v>
       </c>
       <c r="D153">
-        <v>-0.3623106494481891</v>
+        <v>-0.07765384626114752</v>
+      </c>
+      <c r="E153">
+        <v>41</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-1.120937751107929</v>
+        <v>-0.9407437371747596</v>
       </c>
       <c r="C154">
-        <v>0.2375461235692478</v>
+        <v>-0.06094410038396975</v>
       </c>
       <c r="D154">
-        <v>-0.5529544321278952</v>
+        <v>0.2677780696568159</v>
+      </c>
+      <c r="E154">
+        <v>41</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.7450717263801547</v>
+        <v>-0.6861672195736592</v>
       </c>
       <c r="C155">
-        <v>0.2341902104436442</v>
+        <v>-0.5948901499775044</v>
       </c>
       <c r="D155">
-        <v>-1.700054879301824</v>
+        <v>-1.819408541923054</v>
+      </c>
+      <c r="E155">
+        <v>42</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.08251795777331011</v>
+        <v>0.1269658127665272</v>
       </c>
       <c r="C156">
-        <v>-0.428904994843345</v>
+        <v>-0.6668632612604291</v>
       </c>
       <c r="D156">
-        <v>-0.9433693155928818</v>
+        <v>-0.6371482869402316</v>
+      </c>
+      <c r="E156">
+        <v>42</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.3746380303919419</v>
+        <v>-0.3050080736751256</v>
       </c>
       <c r="C157">
-        <v>-0.2440482539581516</v>
+        <v>-0.4462490235186405</v>
       </c>
       <c r="D157">
-        <v>-0.7591743941313529</v>
+        <v>-0.3448208173247571</v>
+      </c>
+      <c r="E157">
+        <v>42</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.326272916772301</v>
+        <v>-0.3458402238924496</v>
       </c>
       <c r="C158">
-        <v>-0.497946580579177</v>
+        <v>-0.5455560568312491</v>
       </c>
       <c r="D158">
-        <v>-0.2878901231216092</v>
+        <v>-0.2703714629908807</v>
+      </c>
+      <c r="E158">
+        <v>42</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.3515743158165584</v>
+        <v>-0.3460944576067879</v>
       </c>
       <c r="C159">
-        <v>-0.2054238017188471</v>
+        <v>-0.395238719811438</v>
       </c>
       <c r="D159">
-        <v>-0.5853556015140099</v>
+        <v>-0.2067628700463972</v>
+      </c>
+      <c r="E159">
+        <v>42</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.2199519166604501</v>
+        <v>-0.1388390603145984</v>
       </c>
       <c r="C160">
-        <v>-0.09355029362014566</v>
+        <v>-0.2472533873306032</v>
       </c>
       <c r="D160">
-        <v>-1.086314291487069</v>
+        <v>-0.7770983640272008</v>
+      </c>
+      <c r="E160">
+        <v>42</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.5217434148420347</v>
+        <v>-0.4632279766826654</v>
       </c>
       <c r="C161">
-        <v>-0.3411061292846339</v>
+        <v>-0.4970588980430892</v>
       </c>
       <c r="D161">
-        <v>-0.4363135968673438</v>
+        <v>-0.09289226941455848</v>
+      </c>
+      <c r="E161">
+        <v>42</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.49090477382183</v>
+        <v>-0.432830274771256</v>
       </c>
       <c r="C162">
-        <v>-0.377050830593961</v>
+        <v>-0.5555945495913546</v>
       </c>
       <c r="D162">
-        <v>-0.4321345511347499</v>
+        <v>-0.09937584711332574</v>
+      </c>
+      <c r="E162">
+        <v>42</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.1155882010660866</v>
+        <v>-0.04513622264671519</v>
       </c>
       <c r="C163">
-        <v>-0.3181618048816308</v>
+        <v>-0.4974605554916631</v>
       </c>
       <c r="D163">
-        <v>-0.9688176229160933</v>
+        <v>-0.5422043224210817</v>
+      </c>
+      <c r="E163">
+        <v>42</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.005008098829632157</v>
+        <v>0.04090868354823818</v>
       </c>
       <c r="C164">
-        <v>-0.7109734766505272</v>
+        <v>-0.8645512974008865</v>
       </c>
       <c r="D164">
-        <v>-0.6318268933322532</v>
+        <v>-0.3198698060279679</v>
+      </c>
+      <c r="E164">
+        <v>42</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.2599952480217818</v>
+        <v>-0.1484636354004402</v>
       </c>
       <c r="C165">
-        <v>-0.2936930777673218</v>
+        <v>-0.5759748188442319</v>
       </c>
       <c r="D165">
-        <v>-0.9052914313119124</v>
+        <v>-0.2880873582049072</v>
+      </c>
+      <c r="E165">
+        <v>42</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.8297926874788093</v>
+        <v>0.8339173924127874</v>
       </c>
       <c r="C166">
-        <v>-0.8584323869278456</v>
+        <v>-1.086368207106803</v>
       </c>
       <c r="D166">
-        <v>-1.318789947086066</v>
+        <v>-0.8833273928472239</v>
+      </c>
+      <c r="E166">
+        <v>42</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,16 +3705,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.623901939008933</v>
+        <v>-0.5246790247813137</v>
       </c>
       <c r="C167">
-        <v>-0.1498947997801952</v>
+        <v>-0.317971084036389</v>
       </c>
       <c r="D167">
-        <v>-0.5629693236841207</v>
+        <v>-0.1573450623205492</v>
+      </c>
+      <c r="E167">
+        <v>42</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.05845614314415598</v>
+        <v>-0.007333509449221509</v>
       </c>
       <c r="C168">
-        <v>-0.7284982972928936</v>
+        <v>-0.8925593060630733</v>
       </c>
       <c r="D168">
-        <v>-0.4035185698051698</v>
+        <v>-0.2507564230292196</v>
+      </c>
+      <c r="E168">
+        <v>42</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.1468579248799164</v>
+        <v>-0.2238634717512748</v>
       </c>
       <c r="C169">
-        <v>-0.6013553976327632</v>
+        <v>-0.7799889879218477</v>
       </c>
       <c r="D169">
-        <v>-0.4155341654137223</v>
+        <v>-0.4299649369854675</v>
+      </c>
+      <c r="E169">
+        <v>42</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.2261414200014909</v>
+        <v>-0.1475352223657914</v>
       </c>
       <c r="C170">
-        <v>-0.5777441494385529</v>
+        <v>-0.7221876643228606</v>
       </c>
       <c r="D170">
-        <v>-0.5697356348764171</v>
+        <v>-0.3265630718000312</v>
+      </c>
+      <c r="E170">
+        <v>42</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.2407295396460793</v>
+        <v>-0.1554731213769692</v>
       </c>
       <c r="C171">
-        <v>-0.7551083270554664</v>
+        <v>-0.8900785077171959</v>
       </c>
       <c r="D171">
-        <v>-0.5047568913009974</v>
+        <v>-0.2199829780776908</v>
+      </c>
+      <c r="E171">
+        <v>42</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.03846040403300499</v>
+        <v>0.02863542849996964</v>
       </c>
       <c r="C172">
-        <v>-0.5951960527859832</v>
+        <v>-0.7863381166644523</v>
       </c>
       <c r="D172">
-        <v>-0.6386893680672111</v>
+        <v>-0.2793540859306632</v>
+      </c>
+      <c r="E172">
+        <v>42</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.6007955746764149</v>
+        <v>-0.4669190512705058</v>
       </c>
       <c r="C173">
-        <v>-0.1708639229048592</v>
+        <v>-0.3984196528525973</v>
       </c>
       <c r="D173">
-        <v>-0.6245312942010542</v>
+        <v>-0.1380791021947705</v>
+      </c>
+      <c r="E173">
+        <v>42</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.2105577505096168</v>
+        <v>-0.1589326203316194</v>
       </c>
       <c r="C174">
-        <v>-0.4670098330609838</v>
+        <v>-0.5797644732142643</v>
       </c>
       <c r="D174">
-        <v>-0.4061508643842179</v>
+        <v>-0.2083845049606221</v>
+      </c>
+      <c r="E174">
+        <v>42</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6731541008388746</v>
+        <v>0.665488284789526</v>
       </c>
       <c r="C175">
-        <v>-0.5917597834241318</v>
+        <v>-0.6394334818913248</v>
       </c>
       <c r="D175">
-        <v>-1.105479178566578</v>
+        <v>-1.062886820860109</v>
+      </c>
+      <c r="E175">
+        <v>42</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.1915020638604206</v>
+        <v>-0.1548873217688204</v>
       </c>
       <c r="C176">
-        <v>-0.5984757969352565</v>
+        <v>-0.6167247466884558</v>
       </c>
       <c r="D176">
-        <v>-0.4896223638365551</v>
+        <v>-0.4801060707464337</v>
+      </c>
+      <c r="E176">
+        <v>42</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3389,16 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.8201228797737969</v>
+        <v>-0.7236720282117879</v>
       </c>
       <c r="C177">
-        <v>-0.0616404957930603</v>
+        <v>-0.2035113509245898</v>
       </c>
       <c r="D177">
-        <v>-0.4803309618301086</v>
+        <v>-0.1927916761198347</v>
+      </c>
+      <c r="E177">
+        <v>42</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.1727191554990725</v>
+        <v>-0.1547847778611789</v>
       </c>
       <c r="C178">
-        <v>-0.4339026954659985</v>
+        <v>-0.6119496021617257</v>
       </c>
       <c r="D178">
-        <v>-0.6206776452625266</v>
+        <v>-0.2967853658320484</v>
+      </c>
+      <c r="E178">
+        <v>42</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.07929167216487887</v>
+        <v>-0.1210197313943658</v>
       </c>
       <c r="C179">
-        <v>-0.7470677468121423</v>
+        <v>-0.9480849848988561</v>
       </c>
       <c r="D179">
-        <v>-0.4324080524077445</v>
+        <v>-0.09827065924739048</v>
+      </c>
+      <c r="E179">
+        <v>42</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1253004751384281</v>
+        <v>0.1742395792082607</v>
       </c>
       <c r="C180">
-        <v>-0.4602620788002317</v>
+        <v>-0.6339887339427704</v>
       </c>
       <c r="D180">
-        <v>-0.9416406010314951</v>
+        <v>-0.6809071795621648</v>
+      </c>
+      <c r="E180">
+        <v>42</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,16 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.783326464818533</v>
+        <v>-0.6781153767913615</v>
       </c>
       <c r="C181">
-        <v>-0.4185051655977324</v>
+        <v>-0.7784498723353399</v>
       </c>
       <c r="D181">
-        <v>-0.4652294128551784</v>
+        <v>0.345186769345663</v>
+      </c>
+      <c r="E181">
+        <v>42</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.7614578718930584</v>
+        <v>-0.898268048506935</v>
       </c>
       <c r="C182">
-        <v>0.5814452067451794</v>
+        <v>-0.1803129775849407</v>
       </c>
       <c r="D182">
-        <v>-1.622011048160452</v>
+        <v>-2.109710620131183</v>
+      </c>
+      <c r="E182">
+        <v>42</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.6723946748908849</v>
+        <v>-0.5529685913636525</v>
       </c>
       <c r="C183">
-        <v>-0.1923484954091597</v>
+        <v>-0.4641322980503921</v>
       </c>
       <c r="D183">
-        <v>-0.5309284782286844</v>
+        <v>-0.1112156285164857</v>
+      </c>
+      <c r="E183">
+        <v>42</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.5146774231809484</v>
+        <v>-0.522145660753788</v>
       </c>
       <c r="C184">
-        <v>-0.03434931379295908</v>
+        <v>-0.04886952881862039</v>
       </c>
       <c r="D184">
-        <v>-0.574109177573715</v>
+        <v>-0.58913292209941</v>
+      </c>
+      <c r="E184">
+        <v>42</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.4064210991634966</v>
+        <v>-0.3514167928587514</v>
       </c>
       <c r="C185">
-        <v>-0.2957998502401108</v>
+        <v>-0.6566276330876755</v>
       </c>
       <c r="D185">
-        <v>-0.7650655019868782</v>
+        <v>-0.1114496094843988</v>
+      </c>
+      <c r="E185">
+        <v>42</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.4846702018571301</v>
+        <v>-0.3582482017787249</v>
       </c>
       <c r="C186">
-        <v>-0.628579830138742</v>
+        <v>-0.7712285678521962</v>
       </c>
       <c r="D186">
-        <v>-0.293263229503048</v>
+        <v>0.1297022514409855</v>
+      </c>
+      <c r="E186">
+        <v>42</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -3559,16 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.3263089446091191</v>
+        <v>-0.2704998923828394</v>
       </c>
       <c r="C187">
-        <v>-0.110539356544005</v>
+        <v>-0.2733978785636042</v>
       </c>
       <c r="D187">
-        <v>-0.76749372260602</v>
+        <v>-0.4421175627627015</v>
+      </c>
+      <c r="E187">
+        <v>43</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.4458517152606988</v>
+        <v>-0.410397560226923</v>
       </c>
       <c r="C188">
-        <v>-0.1318796170886903</v>
+        <v>-0.2626762272366553</v>
       </c>
       <c r="D188">
-        <v>-0.5873922314661406</v>
+        <v>-0.3778831016329834</v>
+      </c>
+      <c r="E188">
+        <v>43</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.4335832996162301</v>
+        <v>-0.4347795080673614</v>
       </c>
       <c r="C189">
-        <v>-0.1002600986329534</v>
+        <v>-0.2453681864473172</v>
       </c>
       <c r="D189">
-        <v>-0.5169133421991834</v>
+        <v>-0.3101282145477577</v>
+      </c>
+      <c r="E189">
+        <v>43</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -3610,16 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.9063288967260148</v>
+        <v>-0.8424398047703491</v>
       </c>
       <c r="C190">
-        <v>-0.03300667545844521</v>
+        <v>-0.1052427160541261</v>
       </c>
       <c r="D190">
-        <v>-0.2557863951499599</v>
+        <v>-0.0834207127004408</v>
+      </c>
+      <c r="E190">
+        <v>43</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.2721484042670256</v>
+        <v>-0.2635412504562751</v>
       </c>
       <c r="C191">
-        <v>-0.1513583812379526</v>
+        <v>-0.252312173795613</v>
       </c>
       <c r="D191">
-        <v>-0.6322120344313165</v>
+        <v>-0.433729143057795</v>
+      </c>
+      <c r="E191">
+        <v>43</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.5006288339672392</v>
+        <v>-0.4697499616606191</v>
       </c>
       <c r="C192">
-        <v>-0.1284390685905103</v>
+        <v>-0.2426586724144907</v>
       </c>
       <c r="D192">
-        <v>-0.5266802114262783</v>
+        <v>-0.327954474923643</v>
+      </c>
+      <c r="E192">
+        <v>43</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.02340392460219137</v>
+        <v>0.02637235078917927</v>
       </c>
       <c r="C193">
-        <v>-0.3167505732157836</v>
+        <v>-0.4228454369756769</v>
       </c>
       <c r="D193">
-        <v>-0.7183586106445541</v>
+        <v>-0.5166796894122615</v>
+      </c>
+      <c r="E193">
+        <v>43</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.6009481434697053</v>
+        <v>-0.5586902742666794</v>
       </c>
       <c r="C194">
-        <v>-0.03482937245197187</v>
+        <v>-0.1009091033692108</v>
       </c>
       <c r="D194">
-        <v>-0.4440448186748652</v>
+        <v>-0.3337410578449822</v>
+      </c>
+      <c r="E194">
+        <v>43</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -3695,16 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.2742465186180402</v>
+        <v>-0.2166904163395367</v>
       </c>
       <c r="C195">
-        <v>-0.1971604190176829</v>
+        <v>-0.2992018225440923</v>
       </c>
       <c r="D195">
-        <v>-0.6353045129174729</v>
+        <v>-0.4235390532265901</v>
+      </c>
+      <c r="E195">
+        <v>43</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.5256618767893055</v>
+        <v>-0.4606960443536152</v>
       </c>
       <c r="C196">
-        <v>-0.2848544693574293</v>
+        <v>-0.4092466422961276</v>
       </c>
       <c r="D196">
-        <v>-0.3922920287099934</v>
+        <v>-0.1321154961532816</v>
+      </c>
+      <c r="E196">
+        <v>43</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.1330473577582597</v>
+        <v>-0.2406977811076237</v>
       </c>
       <c r="C197">
-        <v>-0.2830028060494593</v>
+        <v>-0.5177362537647818</v>
       </c>
       <c r="D197">
-        <v>-0.5960016016687143</v>
+        <v>-0.3271629896077727</v>
+      </c>
+      <c r="E197">
+        <v>43</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.1748036387584523</v>
+        <v>-0.1378484645168055</v>
       </c>
       <c r="C198">
-        <v>-0.2707952922963541</v>
+        <v>-0.3766667731108787</v>
       </c>
       <c r="D198">
-        <v>-0.659202216688188</v>
+        <v>-0.4518939133784858</v>
+      </c>
+      <c r="E198">
+        <v>43</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.1699443686885582</v>
+        <v>-0.1608534019258809</v>
       </c>
       <c r="C199">
-        <v>-0.3198363193284368</v>
+        <v>-0.4527417103405613</v>
       </c>
       <c r="D199">
-        <v>-0.576363961900456</v>
+        <v>-0.3790780842024973</v>
+      </c>
+      <c r="E199">
+        <v>43</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.2685211010663074</v>
+        <v>-0.2339627247960369</v>
       </c>
       <c r="C200">
-        <v>-0.07575033917658214</v>
+        <v>-0.2186192476065023</v>
       </c>
       <c r="D200">
-        <v>-0.7994074027311319</v>
+        <v>-0.5536845359465521</v>
+      </c>
+      <c r="E200">
+        <v>43</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1447798247702506</v>
+        <v>0.169874918023997</v>
       </c>
       <c r="C201">
-        <v>-0.3178606360521368</v>
+        <v>-0.4265738287551579</v>
       </c>
       <c r="D201">
-        <v>-0.875305933879397</v>
+        <v>-0.7020870035374069</v>
+      </c>
+      <c r="E201">
+        <v>43</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.05497722124473609</v>
+        <v>0.008094577729461261</v>
       </c>
       <c r="C202">
-        <v>-0.2792109563281803</v>
+        <v>-0.3936023173107627</v>
       </c>
       <c r="D202">
-        <v>-0.842573649669319</v>
+        <v>-0.7330829062597287</v>
+      </c>
+      <c r="E202">
+        <v>43</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,16 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.3813970886838063</v>
+        <v>-0.3128824672612686</v>
       </c>
       <c r="C203">
-        <v>-0.2202736314331354</v>
+        <v>-0.3431982298759338</v>
       </c>
       <c r="D203">
-        <v>-0.5752260401720798</v>
+        <v>-0.2699129406080037</v>
+      </c>
+      <c r="E203">
+        <v>43</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2472594902523692</v>
+        <v>0.2614854881709998</v>
       </c>
       <c r="C204">
-        <v>-0.1267727546324255</v>
+        <v>-0.3255045390502029</v>
       </c>
       <c r="D204">
-        <v>-1.262404820602948</v>
+        <v>-0.8469561013906823</v>
+      </c>
+      <c r="E204">
+        <v>43</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.6938006308454339</v>
+        <v>0.7263850921187236</v>
       </c>
       <c r="C205">
-        <v>-0.7332076805685006</v>
+        <v>-0.9150609949611525</v>
       </c>
       <c r="D205">
-        <v>-1.174318151074957</v>
+        <v>-0.8125809500333464</v>
+      </c>
+      <c r="E205">
+        <v>43</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.646452579290409</v>
+        <v>0.6046906066578044</v>
       </c>
       <c r="C206">
-        <v>-0.4235340472638444</v>
+        <v>-0.5137191753007964</v>
       </c>
       <c r="D206">
-        <v>-1.253536613979088</v>
+        <v>-1.204290963855523</v>
+      </c>
+      <c r="E206">
+        <v>43</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1130799469129385</v>
+        <v>0.1405707778843177</v>
       </c>
       <c r="C207">
-        <v>-0.3158578838734658</v>
+        <v>-0.4600185625063494</v>
       </c>
       <c r="D207">
-        <v>-0.8519629955088576</v>
+        <v>-0.6016906702343339</v>
+      </c>
+      <c r="E207">
+        <v>43</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.1136275584737951</v>
+        <v>-0.2542461840131732</v>
       </c>
       <c r="C208">
-        <v>-0.332492690863639</v>
+        <v>-0.4580778964329465</v>
       </c>
       <c r="D208">
-        <v>-0.5224017803970631</v>
+        <v>-0.5003085560578538</v>
+      </c>
+      <c r="E208">
+        <v>43</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.003864678040160718</v>
+        <v>0.02467527412471765</v>
       </c>
       <c r="C209">
-        <v>-0.3739948898384108</v>
+        <v>-0.4676098798885233</v>
       </c>
       <c r="D209">
-        <v>-0.6622933435425423</v>
+        <v>-0.5024641121773021</v>
+      </c>
+      <c r="E209">
+        <v>43</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-1.169550055973839</v>
+        <v>-1.140726063385949</v>
       </c>
       <c r="C210">
-        <v>0.1378327720261199</v>
+        <v>-0.07638415086970113</v>
       </c>
       <c r="D210">
-        <v>-0.2553988169491944</v>
+        <v>-0.1659826337723316</v>
+      </c>
+      <c r="E210">
+        <v>44</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.3410433100051853</v>
+        <v>-0.4747275476012744</v>
       </c>
       <c r="C211">
-        <v>-0.2341811499230124</v>
+        <v>-0.4028267233112213</v>
       </c>
       <c r="D211">
-        <v>-0.448518211076825</v>
+        <v>-0.3742601289081784</v>
+      </c>
+      <c r="E211">
+        <v>44</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.8824901607688815</v>
+        <v>-0.7829182761958806</v>
       </c>
       <c r="C212">
-        <v>0.4165289797905807</v>
+        <v>0.04324796801619979</v>
       </c>
       <c r="D212">
-        <v>-1.064353694916512</v>
+        <v>-0.1798822400504279</v>
+      </c>
+      <c r="E212">
+        <v>44</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.3552101239411407</v>
+        <v>-0.3595489831852507</v>
       </c>
       <c r="C213">
-        <v>0.1421508189955276</v>
+        <v>-0.01886535199392625</v>
       </c>
       <c r="D213">
-        <v>-1.109253436091912</v>
+        <v>-0.816466489246008</v>
+      </c>
+      <c r="E213">
+        <v>44</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.6972788319709597</v>
+        <v>-0.7171534643501118</v>
       </c>
       <c r="C214">
-        <v>0.3073981483163519</v>
+        <v>0.2618219734226752</v>
       </c>
       <c r="D214">
-        <v>-0.9505966724573656</v>
+        <v>-0.9560855403214636</v>
+      </c>
+      <c r="E214">
+        <v>44</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3886773132424238</v>
+        <v>0.3987635971527593</v>
       </c>
       <c r="C215">
-        <v>0.04057985571821038</v>
+        <v>-0.01835086007012926</v>
       </c>
       <c r="D215">
-        <v>-1.734451812695715</v>
+        <v>-1.634615306660628</v>
+      </c>
+      <c r="E215">
+        <v>44</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.3744920101194816</v>
+        <v>-0.4947312750645291</v>
       </c>
       <c r="C216">
-        <v>0.2389611921135392</v>
+        <v>0.0626822012735595</v>
       </c>
       <c r="D216">
-        <v>-0.9264125690252414</v>
+        <v>-0.7877946004997431</v>
+      </c>
+      <c r="E216">
+        <v>44</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-1.146650015358773</v>
+        <v>-1.159137949136967</v>
       </c>
       <c r="C217">
-        <v>0.3112479965677354</v>
+        <v>0.227797934007486</v>
       </c>
       <c r="D217">
-        <v>-0.3410303813117679</v>
+        <v>-0.2579917603540881</v>
+      </c>
+      <c r="E217">
+        <v>44</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.8459362762503573</v>
+        <v>-0.8493544951228971</v>
       </c>
       <c r="C218">
-        <v>0.3367808876257982</v>
+        <v>0.2885595972687666</v>
       </c>
       <c r="D218">
-        <v>-0.8293611612451891</v>
+        <v>-0.7698847098647239</v>
+      </c>
+      <c r="E218">
+        <v>44</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.4167948894179301</v>
+        <v>-0.3998981814291909</v>
       </c>
       <c r="C219">
-        <v>0.08097407590342237</v>
+        <v>-0.04244592964883731</v>
       </c>
       <c r="D219">
-        <v>-0.9601396472197473</v>
+        <v>-0.6967633538772389</v>
+      </c>
+      <c r="E219">
+        <v>44</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.7203393603075061</v>
+        <v>-0.7212996659616054</v>
       </c>
       <c r="C220">
-        <v>0.07814408309540688</v>
+        <v>-0.0489788249489147</v>
       </c>
       <c r="D220">
-        <v>-0.6946422116143924</v>
+        <v>-0.5788429723580505</v>
+      </c>
+      <c r="E220">
+        <v>44</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.06076386628451885</v>
+        <v>0.01354321567610361</v>
       </c>
       <c r="C221">
-        <v>0.2651814999383773</v>
+        <v>0.09401157390013748</v>
       </c>
       <c r="D221">
-        <v>-1.595441157543432</v>
+        <v>-1.342156863966213</v>
+      </c>
+      <c r="E221">
+        <v>44</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -4154,16 +4805,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.1251855745218923</v>
+        <v>-0.06189929000499722</v>
       </c>
       <c r="C222">
-        <v>0.05120677638936227</v>
+        <v>-0.1266260633367435</v>
       </c>
       <c r="D222">
-        <v>-1.489695424314973</v>
+        <v>-1.101076419070025</v>
+      </c>
+      <c r="E222">
+        <v>44</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1123628806295787</v>
+        <v>0.1209742226322986</v>
       </c>
       <c r="C223">
-        <v>0.02851964071709551</v>
+        <v>-0.1511946815182128</v>
       </c>
       <c r="D223">
-        <v>-1.370126440625609</v>
+        <v>-1.100723370768259</v>
+      </c>
+      <c r="E223">
+        <v>44</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.2674248599440834</v>
+        <v>-0.282343129686937</v>
       </c>
       <c r="C224">
-        <v>0.09431086587805687</v>
+        <v>0.01271731894808781</v>
       </c>
       <c r="D224">
-        <v>-0.8469337251082589</v>
+        <v>-0.77330582966474</v>
+      </c>
+      <c r="E224">
+        <v>44</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3590559815134944</v>
+        <v>0.283889066494872</v>
       </c>
       <c r="C225">
-        <v>0.1234963724913606</v>
+        <v>0.01794461503233108</v>
       </c>
       <c r="D225">
-        <v>-1.540050237903637</v>
+        <v>-1.513501495935887</v>
+      </c>
+      <c r="E225">
+        <v>44</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4222,16 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.1282886026599191</v>
+        <v>-0.2165446946289287</v>
       </c>
       <c r="C226">
-        <v>-0.09764854138548235</v>
+        <v>-0.2638148950959378</v>
       </c>
       <c r="D226">
-        <v>-0.9298879706550675</v>
+        <v>-0.7347758378041153</v>
+      </c>
+      <c r="E226">
+        <v>44</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.39533727543487</v>
+        <v>-0.351644402169518</v>
       </c>
       <c r="C227">
-        <v>0.1738826347876773</v>
+        <v>0.03186934883974923</v>
       </c>
       <c r="D227">
-        <v>-1.056771781301997</v>
+        <v>-0.887895063780955</v>
+      </c>
+      <c r="E227">
+        <v>44</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.4325784698740686</v>
+        <v>-0.3883009476873374</v>
       </c>
       <c r="C228">
-        <v>0.4561492887771743</v>
+        <v>0.3148793628230211</v>
       </c>
       <c r="D228">
-        <v>-1.272576325190483</v>
+        <v>-0.9872370182922828</v>
+      </c>
+      <c r="E228">
+        <v>44</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.03730761451583292</v>
+        <v>0.01537195999369573</v>
       </c>
       <c r="C229">
-        <v>0.2820865163574795</v>
+        <v>0.1910653953652438</v>
       </c>
       <c r="D229">
-        <v>-1.514845149412585</v>
+        <v>-1.420161707384219</v>
+      </c>
+      <c r="E229">
+        <v>44</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.2318485529422808</v>
+        <v>-0.2081507052358935</v>
       </c>
       <c r="C230">
-        <v>0.5140759946228137</v>
+        <v>0.3397129327070278</v>
       </c>
       <c r="D230">
-        <v>-1.652350419423833</v>
+        <v>-1.315458479713512</v>
+      </c>
+      <c r="E230">
+        <v>44</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-1.193473139956045</v>
+        <v>-1.092481246932896</v>
       </c>
       <c r="C231">
-        <v>0.8755001996449792</v>
+        <v>0.3105220367915534</v>
       </c>
       <c r="D231">
-        <v>-1.314587374344986</v>
+        <v>-0.2946421565891124</v>
+      </c>
+      <c r="E231">
+        <v>44</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.342766130008179</v>
+        <v>-0.1406415884571363</v>
       </c>
       <c r="C232">
-        <v>0.16357827868202</v>
+        <v>-0.4337778267904667</v>
       </c>
       <c r="D232">
-        <v>-1.69530066427078</v>
+        <v>-0.5588403545476213</v>
+      </c>
+      <c r="E232">
+        <v>44</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.2550449859904269</v>
+        <v>0.2505793918633382</v>
       </c>
       <c r="C233">
-        <v>0.1702069734795995</v>
+        <v>-0.04478968385039189</v>
       </c>
       <c r="D233">
-        <v>-1.582887970326784</v>
+        <v>-1.21001996473794</v>
+      </c>
+      <c r="E233">
+        <v>44</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.08276474338889289</v>
+        <v>0.1414491854960375</v>
       </c>
       <c r="C234">
-        <v>-0.04631531430576896</v>
+        <v>-0.4001727168075014</v>
       </c>
       <c r="D234">
-        <v>-1.66354116699363</v>
+        <v>-0.8562067999263229</v>
+      </c>
+      <c r="E234">
+        <v>44</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.2626865579713488</v>
+        <v>-0.2742682293145676</v>
       </c>
       <c r="C235">
-        <v>0.3301982415108533</v>
+        <v>0.05846432687920944</v>
       </c>
       <c r="D235">
-        <v>-1.307266133559644</v>
+        <v>-0.7783193608819378</v>
+      </c>
+      <c r="E235">
+        <v>44</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.154831223528884</v>
+        <v>-0.08077182497199276</v>
       </c>
       <c r="C236">
-        <v>0.2514173400469832</v>
+        <v>-0.07733368745028879</v>
       </c>
       <c r="D236">
-        <v>-1.764243539777251</v>
+        <v>-1.039370932118058</v>
+      </c>
+      <c r="E236">
+        <v>44</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.1923799801253313</v>
+        <v>-0.1769913172872835</v>
       </c>
       <c r="C237">
-        <v>0.09123569710432017</v>
+        <v>-0.06910274184769094</v>
       </c>
       <c r="D237">
-        <v>-1.062923764306846</v>
+        <v>-0.8339842098371021</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.03207621960350593</v>
+        <v>-0.1234188444926897</v>
       </c>
       <c r="C238">
-        <v>0.1059930192505848</v>
+        <v>-0.0602294949562317</v>
       </c>
       <c r="D238">
-        <v>-1.197987415895178</v>
+        <v>-1.04792325453392</v>
+      </c>
+      <c r="E238">
+        <v>44</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.5647940095505052</v>
+        <v>-0.6887563157261331</v>
       </c>
       <c r="C239">
-        <v>0.1708816450424111</v>
+        <v>-0.01075342852150329</v>
       </c>
       <c r="D239">
-        <v>-0.7552538733633416</v>
+        <v>-0.6033513181925859</v>
+      </c>
+      <c r="E239">
+        <v>44</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -4460,16 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.05632341416321546</v>
+        <v>0.1179795391592494</v>
       </c>
       <c r="C240">
-        <v>0.2648623762393857</v>
+        <v>-0.06507645775765297</v>
       </c>
       <c r="D240">
-        <v>-1.89220977236853</v>
+        <v>-1.176732028478093</v>
+      </c>
+      <c r="E240">
+        <v>44</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.503194972718366</v>
+        <v>-0.490706046162048</v>
       </c>
       <c r="C241">
-        <v>0.04302273193471789</v>
+        <v>-0.1189603245254074</v>
       </c>
       <c r="D241">
-        <v>-0.7845615838789186</v>
+        <v>-0.5427579140583294</v>
+      </c>
+      <c r="E241">
+        <v>44</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1392106533541926</v>
+        <v>0.1751619370629158</v>
       </c>
       <c r="C242">
-        <v>-0.164101567225993</v>
+        <v>-0.3790605238870118</v>
       </c>
       <c r="D242">
-        <v>-1.293529918843408</v>
+        <v>-0.8494030430104653</v>
+      </c>
+      <c r="E242">
+        <v>44</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.8949420249590219</v>
+        <v>0.8193903606245256</v>
       </c>
       <c r="C243">
-        <v>-0.7233553503983605</v>
+        <v>-0.7995312877575238</v>
       </c>
       <c r="D243">
-        <v>-1.077250273198697</v>
+        <v>-1.128519192655193</v>
+      </c>
+      <c r="E243">
+        <v>44</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.2589273477104924</v>
+        <v>-0.2819627301782258</v>
       </c>
       <c r="C244">
-        <v>0.08670968520922556</v>
+        <v>-0.02977551290349401</v>
       </c>
       <c r="D244">
-        <v>-0.8845963976068112</v>
+        <v>-0.7881476392160912</v>
+      </c>
+      <c r="E244">
+        <v>44</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.1558102538639612</v>
+        <v>0.218015122712663</v>
       </c>
       <c r="C245">
-        <v>-0.1281675786754579</v>
+        <v>-0.3166254168449969</v>
       </c>
       <c r="D245">
-        <v>-1.394288307232521</v>
+        <v>-0.990338974344813</v>
+      </c>
+      <c r="E245">
+        <v>44</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.2395230377906516</v>
+        <v>-0.3253058147936595</v>
       </c>
       <c r="C246">
-        <v>0.003791812667874983</v>
+        <v>-0.354467504815417</v>
       </c>
       <c r="D246">
-        <v>-0.9737705680826539</v>
+        <v>-0.5152685441546436</v>
+      </c>
+      <c r="E246">
+        <v>44</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.3065734200453424</v>
+        <v>-0.2099091388113498</v>
       </c>
       <c r="C247">
-        <v>0.1515559592924623</v>
+        <v>-0.138214416066706</v>
       </c>
       <c r="D247">
-        <v>-1.360248135822096</v>
+        <v>-0.67010711268326</v>
+      </c>
+      <c r="E247">
+        <v>44</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.7859290367142395</v>
+        <v>0.7120911457675627</v>
       </c>
       <c r="C248">
-        <v>-1.040616640848982</v>
+        <v>-1.140017294268956</v>
       </c>
       <c r="D248">
-        <v>-0.80339559417358</v>
+        <v>-0.7876907597956041</v>
+      </c>
+      <c r="E248">
+        <v>44</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.2641278003881531</v>
+        <v>-0.1300124764311832</v>
       </c>
       <c r="C249">
-        <v>0.1327599258199417</v>
+        <v>-0.07133478305730995</v>
       </c>
       <c r="D249">
-        <v>-1.223923813403147</v>
+        <v>-0.7706920235259931</v>
+      </c>
+      <c r="E249">
+        <v>45</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1950358065324494</v>
+        <v>0.3820853162448787</v>
       </c>
       <c r="C250">
-        <v>-0.1946850560951629</v>
+        <v>-0.4588443144785703</v>
       </c>
       <c r="D250">
-        <v>-1.457777526846469</v>
+        <v>-0.7034469132072072</v>
+      </c>
+      <c r="E250">
+        <v>45</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3802927008614113</v>
+        <v>0.4618136506789413</v>
       </c>
       <c r="C251">
-        <v>-0.3123899944931789</v>
+        <v>-0.4954516242745894</v>
       </c>
       <c r="D251">
-        <v>-1.382468873405699</v>
+        <v>-0.9815937101173714</v>
+      </c>
+      <c r="E251">
+        <v>45</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.360218309838275</v>
+        <v>0.3617778744184212</v>
       </c>
       <c r="C252">
-        <v>-0.6031781677275102</v>
+        <v>-0.6776013146222062</v>
       </c>
       <c r="D252">
-        <v>-0.9657956225114701</v>
+        <v>-0.9516469325752192</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.4656981398104386</v>
+        <v>-0.2716224420829603</v>
       </c>
       <c r="C253">
-        <v>0.1137545125375365</v>
+        <v>-0.1396829131320115</v>
       </c>
       <c r="D253">
-        <v>-1.139279018224497</v>
+        <v>-0.5050216120549085</v>
+      </c>
+      <c r="E253">
+        <v>45</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.2503270573066816</v>
+        <v>-0.09879554396310652</v>
       </c>
       <c r="C254">
-        <v>-0.8143982060360984</v>
+        <v>-0.9603299008568803</v>
       </c>
       <c r="D254">
-        <v>-0.5031362590080702</v>
+        <v>-0.130589547763137</v>
+      </c>
+      <c r="E254">
+        <v>45</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -4715,16 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.2977731168422485</v>
+        <v>-0.1763222327699058</v>
       </c>
       <c r="C255">
-        <v>-0.06708234556841075</v>
+        <v>-0.25538593502091</v>
       </c>
       <c r="D255">
-        <v>-0.9771897489841894</v>
+        <v>-0.6143041355825271</v>
+      </c>
+      <c r="E255">
+        <v>45</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4732,16 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.4627010481174312</v>
+        <v>-0.2797935089488303</v>
       </c>
       <c r="C256">
-        <v>-0.1833911026004648</v>
+        <v>-0.4607253919039348</v>
       </c>
       <c r="D256">
-        <v>-0.8849669355628177</v>
+        <v>-0.1934234693054177</v>
+      </c>
+      <c r="E256">
+        <v>45</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.4972384037309962</v>
+        <v>-0.3692277580899059</v>
       </c>
       <c r="C257">
-        <v>-0.07840941907327986</v>
+        <v>-0.2793649421374269</v>
       </c>
       <c r="D257">
-        <v>-0.8157200391572447</v>
+        <v>-0.3213778126284491</v>
+      </c>
+      <c r="E257">
+        <v>45</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.07836797813152135</v>
+        <v>0.1268335715450407</v>
       </c>
       <c r="C258">
-        <v>-0.2701621099779147</v>
+        <v>-0.5745800583904566</v>
       </c>
       <c r="D258">
-        <v>-1.206390400362174</v>
+        <v>-0.4483547378817667</v>
+      </c>
+      <c r="E258">
+        <v>45</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -4783,13 +5545,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.02494212465071527</v>
+        <v>0.06528406623401561</v>
       </c>
       <c r="C259">
-        <v>-0.5003102092051522</v>
+        <v>-0.6547440641717109</v>
       </c>
       <c r="D259">
-        <v>-0.9118235703674885</v>
+        <v>-0.6343448862242026</v>
+      </c>
+      <c r="E259">
+        <v>45</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.2675903669190404</v>
+        <v>-0.2317499662797156</v>
       </c>
       <c r="C260">
-        <v>-0.823838177539842</v>
+        <v>-0.9054994758108341</v>
       </c>
       <c r="D260">
-        <v>-0.1519715089908454</v>
+        <v>-0.06569717444850053</v>
+      </c>
+      <c r="E260">
+        <v>45</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.2180598856657191</v>
+        <v>-0.07450863837895799</v>
       </c>
       <c r="C261">
-        <v>-0.5482987305405752</v>
+        <v>-0.788587969269818</v>
       </c>
       <c r="D261">
-        <v>-0.7315310253174087</v>
+        <v>-0.09025790409617387</v>
+      </c>
+      <c r="E261">
+        <v>45</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3657667729825279</v>
+        <v>0.579304246895795</v>
       </c>
       <c r="C262">
-        <v>-0.5346351282895971</v>
+        <v>-0.7862912534259352</v>
       </c>
       <c r="D262">
-        <v>-1.435924167681822</v>
+        <v>-0.7018743173500495</v>
+      </c>
+      <c r="E262">
+        <v>45</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -4851,16 +5625,19 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.4572671363148759</v>
+        <v>-0.2880803327524805</v>
       </c>
       <c r="C263">
-        <v>-0.1173176246761644</v>
+        <v>-0.369433026665837</v>
       </c>
       <c r="D263">
-        <v>-0.919784096769912</v>
+        <v>-0.2967832868735089</v>
+      </c>
+      <c r="E263">
+        <v>45</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4868,13 +5645,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2711370982644462</v>
+        <v>0.3196345347266047</v>
       </c>
       <c r="C264">
-        <v>-0.5274866170058669</v>
+        <v>-0.6719090721351761</v>
       </c>
       <c r="D264">
-        <v>-0.9216094290335179</v>
+        <v>-0.6144484840142719</v>
+      </c>
+      <c r="E264">
+        <v>45</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3333461874982305</v>
+        <v>0.3573646466260016</v>
       </c>
       <c r="C265">
-        <v>-0.8446119801576728</v>
+        <v>-0.9901020374814686</v>
       </c>
       <c r="D265">
-        <v>-0.6534181662573127</v>
+        <v>-0.4163501596698442</v>
+      </c>
+      <c r="E265">
+        <v>45</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.1469019430404425</v>
+        <v>-0.01685043188295754</v>
       </c>
       <c r="C266">
-        <v>-0.446952250854283</v>
+        <v>-0.7061434986915014</v>
       </c>
       <c r="D266">
-        <v>-0.8289555611725147</v>
+        <v>-0.1717538664223958</v>
+      </c>
+      <c r="E266">
+        <v>45</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -4919,16 +5705,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.2762459130428108</v>
+        <v>-0.1833083036587052</v>
       </c>
       <c r="C267">
-        <v>-0.05887349860415331</v>
+        <v>-0.4556664626105188</v>
       </c>
       <c r="D267">
-        <v>-1.158103324800619</v>
+        <v>-0.2838651999787734</v>
+      </c>
+      <c r="E267">
+        <v>45</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.0178640439801292</v>
+        <v>0.08126442570165271</v>
       </c>
       <c r="C268">
-        <v>-0.3212024808757368</v>
+        <v>-0.4426281046015581</v>
       </c>
       <c r="D268">
-        <v>-0.9701532473489554</v>
+        <v>-0.6956833434369361</v>
+      </c>
+      <c r="E268">
+        <v>45</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.1293135678631745</v>
+        <v>0.2322121760912347</v>
       </c>
       <c r="C269">
-        <v>-0.04924961578442844</v>
+        <v>-0.2133630318266339</v>
       </c>
       <c r="D269">
-        <v>-1.494797484105485</v>
+        <v>-1.143130032919219</v>
+      </c>
+      <c r="E269">
+        <v>45</v>
       </c>
       <c r="F269">
         <v>0</v>
